--- a/spliced/struggle/2023-04-11_10-14-23/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-14-23/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0286234012063665</v>
+        <v>0.1050096067542932</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7998002785809195</v>
+        <v>-1.756468223065746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0811297598541999</v>
+        <v>0.4945203567645989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03028146071093407</v>
+        <v>-0.0286234012063665</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6503314929349078</v>
+        <v>-0.7998002785809195</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2584614434412545</v>
+        <v>0.0811297598541999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6556547600395809</v>
+        <v>0.03028146071093407</v>
       </c>
       <c r="B4" t="n">
-        <v>3.617322595752007</v>
+        <v>0.6503314929349078</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.325163067603595</v>
+        <v>-0.2584614434412545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9173419645854408</v>
+        <v>0.6556547600395809</v>
       </c>
       <c r="B5" t="n">
-        <v>4.483878631981052</v>
+        <v>3.617322595752007</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.026156997194096</v>
+        <v>-1.325163067603595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6556111379545562</v>
+        <v>0.9173419645854408</v>
       </c>
       <c r="B6" t="n">
-        <v>2.95567157317181</v>
+        <v>4.483878631981052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3850134197546516</v>
+        <v>-1.026156997194096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01345462458474067</v>
+        <v>0.6556111379545562</v>
       </c>
       <c r="B7" t="n">
-        <v>2.573593986277679</v>
+        <v>2.95567157317181</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1254206044333366</v>
+        <v>0.3850134197546516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0735905529284972</v>
+        <v>0.01345462458474067</v>
       </c>
       <c r="B8" t="n">
-        <v>1.541839412736652</v>
+        <v>2.573593986277679</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5845232478209913</v>
+        <v>-0.1254206044333366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5347626531610679</v>
+        <v>-0.0735905529284972</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.351723280640276</v>
+        <v>1.541839412736652</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006906517306153076</v>
+        <v>-0.5845232478209913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2076723618166787</v>
+        <v>0.5347626531610679</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.982405117579868</v>
+        <v>-1.351723280640276</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1024508295314652</v>
+        <v>0.006906517306153076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6092913156869469</v>
+        <v>0.2076723618166787</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.47834036301593</v>
+        <v>-3.982405117579868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3969252789203029</v>
+        <v>-0.1024508295314652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4407143246154432</v>
+        <v>-0.6092913156869469</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.636212723595754</v>
+        <v>-4.47834036301593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6680403655889118</v>
+        <v>0.3969252789203029</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2482107579708095</v>
+        <v>-0.4407143246154432</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.94579162889598</v>
+        <v>-3.636212723595754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002957710806204883</v>
+        <v>0.6680403655889118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1622283559064473</v>
+        <v>0.2482107579708095</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07419828006199625</v>
+        <v>-2.94579162889598</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1648120685499541</v>
+        <v>0.002957710806204883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2419649730531533</v>
+        <v>0.1622283559064473</v>
       </c>
       <c r="B15" t="n">
-        <v>4.375038618944129</v>
+        <v>0.07419828006199625</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3818312956362353</v>
+        <v>-0.1648120685499541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5893073264433398</v>
+        <v>0.2419649730531533</v>
       </c>
       <c r="B16" t="n">
-        <v>6.328164937544838</v>
+        <v>4.375038618944129</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07646724885823974</v>
+        <v>-0.3818312956362353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.175296502453943</v>
+        <v>0.5893073264433398</v>
       </c>
       <c r="B17" t="n">
-        <v>2.29715876919883</v>
+        <v>6.328164937544838</v>
       </c>
       <c r="C17" t="n">
-        <v>1.448470601013731</v>
+        <v>0.07646724885823974</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8341801327710269</v>
+        <v>-0.175296502453943</v>
       </c>
       <c r="B18" t="n">
-        <v>0.753240480714915</v>
+        <v>2.29715876919883</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1038439748238527</v>
+        <v>1.448470601013731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1397884144466732</v>
+        <v>0.8341801327710269</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2036113617371567</v>
+        <v>0.753240480714915</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8063265510967792</v>
+        <v>-0.1038439748238527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.7627712436476506</v>
+        <v>-0.1397884144466732</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.678813515877241</v>
+        <v>0.2036113617371567</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.093177660387389</v>
+        <v>-0.8063265510967792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.7627712436476506</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.678813515877241</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.093177660387389</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-0.0004051567948546442</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-2.697911312993704</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-0.4782794093599184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.8633800915309378</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.3154059344408438</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4824308418497782</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4081483519807154</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6726997543354425</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2190668820118418</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2211332225373814</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.241335413285664</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.08368853798934378</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.06768137718341787</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3379019900244107</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1505034766635118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.07254024853511698</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5556785336562575</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.05807583201296457</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1816357883567719</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1322741392923868</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.08515337003128903</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.02734556931013958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1169588795425942</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.04497027853313797</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.02540700723017953</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.06986615411481072</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.074921377335808</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.02237761537639455</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.07008743807863513</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.003453258577050004</v>
       </c>
     </row>
   </sheetData>
